--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -6,48 +6,99 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tính Lương Nhân Viên" r:id="rId3" sheetId="1"/>
+    <sheet name="Sảm Phẩm" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Mã Nhân Viên</t>
-  </si>
-  <si>
-    <t>Tên Nhân Viên</t>
-  </si>
-  <si>
-    <t>Chức Vụ</t>
-  </si>
-  <si>
-    <t>Ngày Nhận</t>
-  </si>
-  <si>
-    <t>Số Ca</t>
-  </si>
-  <si>
-    <t>Lương</t>
-  </si>
-  <si>
-    <t>NV010</t>
-  </si>
-  <si>
-    <t>Lê Minh Ngọc</t>
-  </si>
-  <si>
-    <t>Nhân viên Kế Toán</t>
-  </si>
-  <si>
-    <t>Mon Dec 20 18:09:40 ICT 2021</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>750000.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>Mã SP</t>
+  </si>
+  <si>
+    <t>Tên SP</t>
+  </si>
+  <si>
+    <t>Danh Mục</t>
+  </si>
+  <si>
+    <t>Giá Bán</t>
+  </si>
+  <si>
+    <t>Số Lượng Đã Bán</t>
+  </si>
+  <si>
+    <t>SP003</t>
+  </si>
+  <si>
+    <t>Áo Hoodie AlenWarker</t>
+  </si>
+  <si>
+    <t>Áo Hoodie</t>
+  </si>
+  <si>
+    <t>460000.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>SP004</t>
+  </si>
+  <si>
+    <t>Áo Hoodie Essentials</t>
+  </si>
+  <si>
+    <t>500000.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SP002</t>
+  </si>
+  <si>
+    <t>550000.0</t>
+  </si>
+  <si>
+    <t>SP001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>SP024</t>
+  </si>
+  <si>
+    <t>Quần jean nam Bagy</t>
+  </si>
+  <si>
+    <t>Áo Sơ mi</t>
+  </si>
+  <si>
+    <t>200000.0</t>
+  </si>
+  <si>
+    <t>SP028</t>
+  </si>
+  <si>
+    <t>Quần jean Nữ Baggy</t>
+  </si>
+  <si>
+    <t>250000.0</t>
+  </si>
+  <si>
+    <t>SP033</t>
+  </si>
+  <si>
+    <t>Áo Polo Men</t>
+  </si>
+  <si>
+    <t>Áo Thun</t>
+  </si>
+  <si>
+    <t>SP036</t>
   </si>
 </sst>
 </file>
@@ -92,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,22 +151,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
